--- a/modelagem.xlsx
+++ b/modelagem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\OneDrive\Área de Trabalho\palavras cruzadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\OneDrive\Área de Trabalho\palavras cruzadas\Cruzadinha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F54C532-E1D2-4E21-B560-0436F6BB24DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0DDAB3-5DA1-4CE7-9A1D-64766DBE8E5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28950" yWindow="150" windowWidth="10245" windowHeight="10920" xr2:uid="{43290283-B31F-44E4-88A7-34F0959279FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43290283-B31F-44E4-88A7-34F0959279FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC97E23-4650-479E-8E14-DC6C5A5774DF}">
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5:AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
